--- a/vivadoHLS2019/dense_out/dense_out (version 1).xlsb.xlsx
+++ b/vivadoHLS2019/dense_out/dense_out (version 1).xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenq\MAG\code\FFF\HLS2019\dense_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A26E95-545B-49CA-83E7-69657EB5AEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA77DD-E7D0-4D8B-B094-05D7508DFD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22046" yWindow="-9" windowWidth="22149" windowHeight="13200" xr2:uid="{9CFD8471-BDC5-41FF-BEC6-A56C60585C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>no_directive</t>
   </si>
@@ -108,6 +108,39 @@
   </si>
   <si>
     <t>n s</t>
+  </si>
+  <si>
+    <t>Rast virov</t>
+  </si>
+  <si>
+    <t>SpeedUp-1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>pipeline+unroll factor_10</t>
+  </si>
+  <si>
+    <t>flat_puf_10</t>
+  </si>
+  <si>
+    <t>flat_puf_2</t>
+  </si>
+  <si>
+    <t>pipeline+unroll factor_2</t>
+  </si>
+  <si>
+    <t>flat_puf_5</t>
+  </si>
+  <si>
+    <t>pipeline+runoll factor_5</t>
+  </si>
+  <si>
+    <t>dense_p_apc</t>
+  </si>
+  <si>
+    <t>apc</t>
   </si>
 </sst>
 </file>
@@ -489,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11009CB8-E721-4527-8103-22E29DD5E43A}">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +538,12 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,6 +553,9 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
@@ -526,14 +565,26 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
@@ -541,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -557,23 +608,35 @@
       <c r="I4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -586,8 +649,17 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -600,8 +672,17 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -614,6 +695,9 @@
       <c r="E11" s="1">
         <v>1538</v>
       </c>
+      <c r="F11" s="1">
+        <v>389</v>
+      </c>
       <c r="G11" s="1">
         <v>981</v>
       </c>
@@ -623,8 +707,17 @@
       <c r="I11" s="1">
         <v>1363</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1363</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1363</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -637,6 +730,9 @@
       <c r="E12" s="1">
         <v>1538</v>
       </c>
+      <c r="F12" s="1">
+        <v>389</v>
+      </c>
       <c r="G12" s="1">
         <v>981</v>
       </c>
@@ -646,8 +742,17 @@
       <c r="I12">
         <v>1363</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>1363</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1363</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -658,6 +763,10 @@
         <f>(C11-E11)/C11</f>
         <v>0.36261914629092418</v>
       </c>
+      <c r="F13">
+        <f>(C11-F11)/C11</f>
+        <v>0.83878988810609201</v>
+      </c>
       <c r="G13">
         <f>(C11-G11)/C11</f>
         <v>0.59345213427268961</v>
@@ -670,14 +779,26 @@
         <f>(C11-I11)/C11</f>
         <v>0.43514297554910897</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>(C11-J11)/C11</f>
+        <v>0.43514297554910897</v>
+      </c>
+      <c r="K13">
+        <f>(C11-K11)/C11</f>
+        <v>0.43514297554910897</v>
+      </c>
+      <c r="L13">
+        <f>(C11-L11)/C11</f>
+        <v>0.43514297554910897</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="G14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -690,6 +811,9 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -699,8 +823,17 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -713,6 +846,9 @@
       <c r="E16" s="4">
         <v>12</v>
       </c>
+      <c r="F16">
+        <v>159</v>
+      </c>
       <c r="G16">
         <v>12</v>
       </c>
@@ -722,8 +858,17 @@
       <c r="I16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -736,6 +881,9 @@
       <c r="E17" s="1">
         <v>3299</v>
       </c>
+      <c r="F17">
+        <v>14829</v>
+      </c>
       <c r="G17">
         <v>1639</v>
       </c>
@@ -745,8 +893,17 @@
       <c r="I17">
         <v>1455</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2013</v>
+      </c>
+      <c r="K17">
+        <v>1740</v>
+      </c>
+      <c r="L17">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -759,6 +916,9 @@
       <c r="E18" s="4">
         <v>4085</v>
       </c>
+      <c r="F18">
+        <v>24695</v>
+      </c>
       <c r="G18">
         <v>3223</v>
       </c>
@@ -768,8 +928,17 @@
       <c r="I18">
         <v>3089</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>3750</v>
+      </c>
+      <c r="K18">
+        <v>3423</v>
+      </c>
+      <c r="L18">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -783,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>SUM(C15:C19)</f>
         <v>4281</v>
@@ -796,6 +965,10 @@
         <f>SUM(E15:E19)</f>
         <v>7396</v>
       </c>
+      <c r="F20">
+        <f>SUM(F15:F19)</f>
+        <v>39683</v>
+      </c>
       <c r="G20">
         <f>SUM(G15:G19)</f>
         <v>4876</v>
@@ -808,20 +981,36 @@
         <f>SUM(I15:I19)</f>
         <v>4557</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>SUM(J15:J19)</f>
+        <v>5776</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K15:K19)</f>
+        <v>5176</v>
+      </c>
+      <c r="L20">
+        <f>SUM(L15:L19)</f>
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>SUM(C15,C16,C17/2,C18)</f>
         <v>3649.5</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:I21" si="0">SUM(D15,D16,D17/2,D18)</f>
+        <f t="shared" ref="D21:L21" si="0">SUM(D15,D16,D17/2,D18)</f>
         <v>32946</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>5746.5</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>32268.5</v>
+      </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>4056.5</v>
@@ -834,8 +1023,20 @@
         <f t="shared" si="0"/>
         <v>3829.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>4769.5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>4306</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>3962.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
@@ -847,6 +1048,10 @@
         <f>(E15-C15)/C15</f>
         <v>-1</v>
       </c>
+      <c r="F24">
+        <f>(F15-C15)/C15</f>
+        <v>-1</v>
+      </c>
       <c r="G24">
         <f>(G15-C15)/C15</f>
         <v>1</v>
@@ -859,8 +1064,20 @@
         <f>(I15-C15)/C15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>(J15-C15)/C15</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>(K15-C15)/C15</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>(L15-C15)/C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
@@ -872,6 +1089,10 @@
         <f>(E16-C16)/C16</f>
         <v>0</v>
       </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F27" si="1">(F16-C16)/C16</f>
+        <v>12.25</v>
+      </c>
       <c r="G25">
         <f>(G16-C16)/C16</f>
         <v>0</v>
@@ -884,8 +1105,20 @@
         <f>(I16-C16)/C16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" ref="J25:J27" si="2">(J16-C16)/C16</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K27" si="3">(K16-C16)/C16</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L27" si="4">(L16-C16)/C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
@@ -897,6 +1130,10 @@
         <f>(E17-C17)/C17</f>
         <v>1.6120348376880442</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>10.741092636579573</v>
+      </c>
       <c r="G26">
         <f>(G17-C17)/C17</f>
         <v>0.29770387965162309</v>
@@ -909,8 +1146,20 @@
         <f>(I17-C17)/C17</f>
         <v>0.15201900237529692</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0.59382422802850354</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.37767220902612825</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.23436262866191607</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
@@ -922,6 +1171,10 @@
         <f>(E18-C18)/C18</f>
         <v>0.3594009983361065</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>7.2179700499168051</v>
+      </c>
       <c r="G27">
         <f>(G18-C18)/C18</f>
         <v>7.2545757071547423E-2</v>
@@ -934,8 +1187,23 @@
         <f>(I18-C18)/C18</f>
         <v>2.7953410981697173E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.24792013311148087</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.13910149750415973</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>5.4908485856905158E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D29">
         <f>(D21-C21)/C21</f>
         <v>8.0275380189067</v>
@@ -944,6 +1212,10 @@
         <f>(E21-C21)/C21</f>
         <v>0.57459926017262641</v>
       </c>
+      <c r="F29">
+        <f>(F21-C21)/C21</f>
+        <v>7.8418961501575559</v>
+      </c>
       <c r="G29">
         <f>(G21-C21)/C21</f>
         <v>0.11152212631867379</v>
@@ -956,8 +1228,20 @@
         <f>(I21-C21)/C21</f>
         <v>4.9321824907521579E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>(J21-C21)/C21</f>
+        <v>0.30689135498013426</v>
+      </c>
+      <c r="K29">
+        <f>(K21-C21)/C21</f>
+        <v>0.17988765584326621</v>
+      </c>
+      <c r="L29">
+        <f>(L21-C21)/C21</f>
+        <v>8.5765173311412521E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>D13/D29</f>
         <v>0.10371468287326195</v>
@@ -966,6 +1250,10 @@
         <f>E13/E29</f>
         <v>0.63108181897411908</v>
       </c>
+      <c r="F30">
+        <f>F13/F29</f>
+        <v>0.10696263659258474</v>
+      </c>
       <c r="G30">
         <f>G13/G29</f>
         <v>5.3213846782019179</v>
@@ -977,6 +1265,100 @@
       <c r="I30">
         <f>I13/I29</f>
         <v>8.8225238292581842</v>
+      </c>
+      <c r="J30">
+        <f>J13/J29</f>
+        <v>1.417905615416494</v>
+      </c>
+      <c r="K30">
+        <f>K13/K29</f>
+        <v>2.4189707376488547</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30" si="5">L13/L29</f>
+        <v>5.0736558762507133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <f>(C12/D12)-1</f>
+        <v>4.9727722772277225</v>
+      </c>
+      <c r="E32">
+        <f>(C12/E12)-1</f>
+        <v>0.56892067620286091</v>
+      </c>
+      <c r="F32">
+        <f>(C12/F12)-1</f>
+        <v>5.2030848329048842</v>
+      </c>
+      <c r="G32">
+        <f>(C12/G12)-1</f>
+        <v>1.4597349643221205</v>
+      </c>
+      <c r="H32">
+        <f>(C12/H12)-1</f>
+        <v>0.78873239436619724</v>
+      </c>
+      <c r="I32">
+        <f>(C12/I12)-1</f>
+        <v>0.77035950110051354</v>
+      </c>
+      <c r="J32">
+        <f>(C12/J12)-1</f>
+        <v>0.77035950110051354</v>
+      </c>
+      <c r="K32">
+        <f>(C12/K12)-1</f>
+        <v>0.77035950110051354</v>
+      </c>
+      <c r="L32">
+        <f>(C12/L12)-1</f>
+        <v>0.77035950110051354</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:L33" si="6">D32/D29</f>
+        <v>0.61946418260688385</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0.99011731416420634</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0.66349830873497939</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>13.089195951581274</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.14956244794967458</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>15.619038884812912</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>2.5102026779163609</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>4.2824478282807679</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>8.9821948858349021</v>
       </c>
     </row>
   </sheetData>
